--- a/data/raw/data_access.xlsx
+++ b/data/raw/data_access.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{EE7EFFBB-AE63-435E-B1B6-7559D67A2B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E46827-C229-42C4-959E-A42F99B91587}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15959687-070F-45CB-84E4-6D2C35395F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12960" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>001_sia_wd_emp</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>spec_name</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>K221282; 870.2700; epilepsy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,11 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,467 +572,467 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD5DC-A81B-4D9C-8626-3C643AFB0E7B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>60</v>
       </c>
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D31">
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
